--- a/predictions/predictions_day_3.xlsx
+++ b/predictions/predictions_day_3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demetri/gitrepos/Euro2020/predictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{205F186C-72CE-5F44-8654-51CEE34E68D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6125F1D-4B01-A843-AB41-4E4DE00EE005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="21380" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="predictions_day_3" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -584,7 +584,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -627,11 +627,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -671,11 +673,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -696,30 +702,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O13" totalsRowShown="0">
-  <autoFilter ref="A1:O13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O13" totalsRowShown="0">
+  <autoFilter ref="A1:O13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="team1"/>
-    <tableColumn id="2" name="team2"/>
-    <tableColumn id="3" name="matchday"/>
-    <tableColumn id="4" name="draw"/>
-    <tableColumn id="5" name="team1wins"/>
-    <tableColumn id="6" name="team2wins"/>
-    <tableColumn id="7" name="score1"/>
-    <tableColumn id="8" name="score2"/>
-    <tableColumn id="9" name="noteamwon"/>
-    <tableColumn id="10" name="team1won"/>
-    <tableColumn id="11" name="team2won"/>
-    <tableColumn id="12" name="lossdraw" dataDxfId="1">
-      <calculatedColumnFormula>LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="team1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="team2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="matchday"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="draw" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="team1wins" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="team2wins" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="score1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="score2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="noteamwon"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="team1won"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="team2won"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="lossdraw" dataDxfId="2">
+      <calculatedColumnFormula>-LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="lossteam1">
-      <calculatedColumnFormula>LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="lossteam1" dataDxfId="1">
+      <calculatedColumnFormula>-LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="lossteam2">
-      <calculatedColumnFormula>LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="lossteam2">
+      <calculatedColumnFormula>-LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="loss" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="loss" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[lossdraw]:[lossteam2]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1023,11 +1029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="O2" sqref="O2:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1093,30 +1099,45 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.14050000000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.76375000000000004</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>9.5750000000000002E-2</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
       <c r="L2">
-        <f>LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
+        <f>-LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
-        <v>0</v>
+        <f>-LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
+        <v>0.26951476849633194</v>
       </c>
       <c r="N2">
-        <f>LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
+        <f>-LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
         <v>0</v>
       </c>
       <c r="O2">
         <f>SUM(Table1[[#This Row],[lossdraw]:[lossteam2]])</f>
-        <v>0</v>
+        <v>0.26951476849633194</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1129,30 +1150,42 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.24349999999999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.50775000000000003</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.24875</v>
       </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
       <c r="L3">
-        <f>LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
+        <f>-LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
-        <v>0</v>
+        <f>-LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
+        <v>0.67776607852164295</v>
       </c>
       <c r="N3">
-        <f>LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
+        <f>-LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
         <v>0</v>
       </c>
       <c r="O3">
         <f>SUM(Table1[[#This Row],[lossdraw]:[lossteam2]])</f>
-        <v>0</v>
+        <v>0.67776607852164295</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1165,30 +1198,45 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.26474999999999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.42725000000000002</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.308</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
       <c r="L4">
-        <f>LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
+        <f>-LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
+        <f>-LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
-        <v>0</v>
+        <f>-LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
+        <v>1.1776554960085626</v>
       </c>
       <c r="O4">
         <f>SUM(Table1[[#This Row],[lossdraw]:[lossteam2]])</f>
-        <v>0</v>
+        <v>1.1776554960085626</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1201,30 +1249,45 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.1045</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.83925000000000005</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
       <c r="L5">
-        <f>LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
+        <f>-LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
+        <f>-LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
-        <v>0</v>
+        <f>-LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
+        <v>0.17524664312199267</v>
       </c>
       <c r="O5">
         <f>SUM(Table1[[#This Row],[lossdraw]:[lossteam2]])</f>
-        <v>0</v>
+        <v>0.17524664312199267</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1237,30 +1300,45 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.26300000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.28225</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.45474999999999999</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
       <c r="L6">
-        <f>LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
+        <f>-LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
+        <f>-LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
-        <v>0</v>
+        <f>-LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
+        <v>0.78800746158390544</v>
       </c>
       <c r="O6">
         <f>SUM(Table1[[#This Row],[lossdraw]:[lossteam2]])</f>
-        <v>0</v>
+        <v>0.78800746158390544</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1273,30 +1351,45 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.85150000000000003</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
       <c r="L7">
-        <f>LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
+        <f>-LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
+        <f>-LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
-        <v>0</v>
+        <f>-LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
+        <v>0.16075577887939405</v>
       </c>
       <c r="O7">
         <f>SUM(Table1[[#This Row],[lossdraw]:[lossteam2]])</f>
-        <v>0</v>
+        <v>0.16075577887939405</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1309,30 +1402,45 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.20924999999999999</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.60024999999999995</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.1905</v>
       </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
       <c r="L8">
-        <f>LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
+        <f>-LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
-        <v>0</v>
+        <f>-LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
+        <v>0.51040904388077457</v>
       </c>
       <c r="N8">
-        <f>LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
+        <f>-LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
         <v>0</v>
       </c>
       <c r="O8">
         <f>SUM(Table1[[#This Row],[lossdraw]:[lossteam2]])</f>
-        <v>0</v>
+        <v>0.51040904388077457</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1345,30 +1453,45 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.13975000000000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.09</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.77024999999999999</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
       <c r="L9">
-        <f>LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
+        <f>-LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
+        <f>-LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
-        <v>0</v>
+        <f>-LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
+        <v>0.26104014150535976</v>
       </c>
       <c r="O9">
         <f>SUM(Table1[[#This Row],[lossdraw]:[lossteam2]])</f>
-        <v>0</v>
+        <v>0.26104014150535976</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1381,30 +1504,45 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.26150000000000001</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.317</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.42149999999999999</v>
       </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
       <c r="L10">
-        <f>LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
+        <f>-LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
-        <v>0</v>
+        <f>-LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
+        <v>1.1488535051048565</v>
       </c>
       <c r="N10">
-        <f>LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
+        <f>-LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
         <v>0</v>
       </c>
       <c r="O10">
         <f>SUM(Table1[[#This Row],[lossdraw]:[lossteam2]])</f>
-        <v>0</v>
+        <v>1.1488535051048565</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1417,30 +1555,45 @@
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.16625000000000001</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.11550000000000001</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.71825000000000006</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
       <c r="L11">
-        <f>LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
+        <f>-LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
+        <f>-LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
-        <v>0</v>
+        <f>-LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
+        <v>0.33093758112273802</v>
       </c>
       <c r="O11">
         <f>SUM(Table1[[#This Row],[lossdraw]:[lossteam2]])</f>
-        <v>0</v>
+        <v>0.33093758112273802</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1453,30 +1606,45 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.22475000000000001</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0.58299999999999996</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.19225</v>
       </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
       <c r="L12">
-        <f>LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
-        <v>0</v>
+        <f>-LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
+        <v>1.4927666056304074</v>
       </c>
       <c r="M12">
-        <f>LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
+        <f>-LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
+        <f>-LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
         <v>0</v>
       </c>
       <c r="O12">
         <f>SUM(Table1[[#This Row],[lossdraw]:[lossteam2]])</f>
-        <v>0</v>
+        <v>1.4927666056304074</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1489,30 +1657,45 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.17199999999999999</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>0.70225000000000004</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0.12575</v>
       </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
       <c r="L13">
-        <f>LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
-        <v>0</v>
+        <f>-LOG(Table1[[#This Row],[draw]], EXP(1))*Table1[[#This Row],[noteamwon]]</f>
+        <v>1.7602608021686841</v>
       </c>
       <c r="M13">
-        <f>LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
+        <f>-LOG(Table1[[#This Row],[team1wins]], EXP(1))*Table1[[#This Row],[team1won]]</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
+        <f>-LOG(Table1[[#This Row],[team2wins]], EXP(1))*Table1[[#This Row],[team2won]]</f>
         <v>0</v>
       </c>
       <c r="O13">
         <f>SUM(Table1[[#This Row],[lossdraw]:[lossteam2]])</f>
-        <v>0</v>
+        <v>1.7602608021686841</v>
       </c>
     </row>
   </sheetData>
